--- a/Feature-Analysis/Resize Feature/s_12_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_12_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.77971064812</v>
+        <v>738157.77971064812</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.78026620368</v>
+        <v>738157.78026620368</v>
       </c>
       <c r="C3" s="0">
         <v>48.000001162290573</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.78052083333</v>
+        <v>738157.78052083333</v>
       </c>
       <c r="C4" s="0">
         <v>70.000002533197403</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.78091435181</v>
+        <v>738157.78091435181</v>
       </c>
       <c r="C5" s="0">
         <v>103.99999916553497</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.78129629628</v>
+        <v>738157.78129629628</v>
       </c>
       <c r="C6" s="0">
         <v>137.00000122189522</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.78165509261</v>
+        <v>738157.78165509261</v>
       </c>
       <c r="C7" s="0">
         <v>168.00000406801701</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.78192129626</v>
+        <v>738157.78192129626</v>
       </c>
       <c r="C8" s="0">
         <v>191.00000001490116</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.78231481486</v>
+        <v>738157.78231481486</v>
       </c>
       <c r="C9" s="0">
         <v>225.00000670552254</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.78269675921</v>
+        <v>738157.78269675921</v>
       </c>
       <c r="C10" s="0">
         <v>257.99999870359898</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.78307870368</v>
+        <v>738157.78307870368</v>
       </c>
       <c r="C11" s="0">
         <v>291.00000075995922</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.78346064815</v>
+        <v>738157.78346064815</v>
       </c>
       <c r="C12" s="0">
         <v>324.00000281631947</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.78384259262</v>
+        <v>738157.78384259262</v>
       </c>
       <c r="C13" s="0">
         <v>357.00000487267971</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.78422453708</v>
+        <v>738157.78422453708</v>
       </c>
       <c r="C14" s="0">
         <v>390.00000692903996</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.78460648144</v>
+        <v>738157.78460648144</v>
       </c>
       <c r="C15" s="0">
         <v>422.99999892711639</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.7849884259</v>
+        <v>738157.7849884259</v>
       </c>
       <c r="C16" s="0">
         <v>456.00000098347664</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.78524305555</v>
+        <v>738157.78524305555</v>
       </c>
       <c r="C17" s="0">
         <v>478.00000235438347</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.78563657403</v>
+        <v>738157.78563657403</v>
       </c>
       <c r="C18" s="0">
         <v>511.99999898672104</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.7860185185</v>
+        <v>738157.7860185185</v>
       </c>
       <c r="C19" s="0">
         <v>545.00000104308128</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.78652777779</v>
+        <v>738157.78652777779</v>
       </c>
       <c r="C20" s="0">
         <v>589.00000378489494</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.78739583329</v>
+        <v>738157.78739583329</v>
       </c>
       <c r="C21" s="0">
         <v>663.99999931454659</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.78739583329</v>
+        <v>738157.78739583329</v>
       </c>
       <c r="C22" s="0">
         <v>663.99999931454659</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.78765046294</v>
+        <v>738157.78765046294</v>
       </c>
       <c r="C23" s="0">
         <v>686.00000068545341</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.78790509258</v>
+        <v>738157.78790509258</v>
       </c>
       <c r="C24" s="0">
         <v>708.00000205636024</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.78828703705</v>
+        <v>738157.78828703705</v>
       </c>
       <c r="C25" s="0">
         <v>741.00000411272049</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.78855324071</v>
+        <v>738157.78855324071</v>
       </c>
       <c r="C26" s="0">
         <v>764.00000005960464</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.7889467593</v>
+        <v>738157.7889467593</v>
       </c>
       <c r="C27" s="0">
         <v>798.00000675022602</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.7894097222</v>
+        <v>738157.7894097222</v>
       </c>
       <c r="C28" s="0">
         <v>838.00000101327896</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.78972222225</v>
+        <v>738157.78972222225</v>
       </c>
       <c r="C29" s="0">
         <v>865.00000543892384</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.79011574073</v>
+        <v>738157.79011574073</v>
       </c>
       <c r="C30" s="0">
         <v>899.00000207126141</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.79052083334</v>
+        <v>738157.79052083334</v>
       </c>
       <c r="C31" s="0">
         <v>934.00000333786011</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.790787037</v>
+        <v>738157.790787037</v>
       </c>
       <c r="C32" s="0">
         <v>956.99999928474426</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.79116898146</v>
+        <v>738157.79116898146</v>
       </c>
       <c r="C33" s="0">
         <v>990.00000134110451</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.79156249994</v>
+        <v>738157.79156249994</v>
       </c>
       <c r="C34" s="0">
         <v>1023.9999979734421</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.79196759255</v>
+        <v>738157.79196759255</v>
       </c>
       <c r="C35" s="0">
         <v>1058.9999992400408</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.79223379632</v>
+        <v>738157.79223379632</v>
       </c>
       <c r="C36" s="0">
         <v>1082.0000052452087</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.7926273148</v>
+        <v>738157.7926273148</v>
       </c>
       <c r="C37" s="0">
         <v>1116.0000018775463</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.79302083328</v>
+        <v>738157.79302083328</v>
       </c>
       <c r="C38" s="0">
         <v>1149.9999985098839</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.79341435188</v>
+        <v>738157.79341435188</v>
       </c>
       <c r="C39" s="0">
         <v>1184.0000052005053</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.79380787036</v>
+        <v>738157.79380787036</v>
       </c>
       <c r="C40" s="0">
         <v>1218.0000018328428</v>
